--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H2">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I2">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J2">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>52.67167723943924</v>
+        <v>9.824612585493334</v>
       </c>
       <c r="R2">
-        <v>52.67167723943924</v>
+        <v>88.42151326944001</v>
       </c>
       <c r="S2">
-        <v>0.188327583006907</v>
+        <v>0.02163322287271221</v>
       </c>
       <c r="T2">
-        <v>0.188327583006907</v>
+        <v>0.02394020779903189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H3">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I3">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J3">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>58.99054045734461</v>
+        <v>10.5137505764</v>
       </c>
       <c r="R3">
-        <v>58.99054045734461</v>
+        <v>94.6237551876</v>
       </c>
       <c r="S3">
-        <v>0.2109206785669684</v>
+        <v>0.02315066446316739</v>
       </c>
       <c r="T3">
-        <v>0.2109206785669684</v>
+        <v>0.02561947062603368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H4">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I4">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J4">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>30.34903796022733</v>
+        <v>5.279297640053334</v>
       </c>
       <c r="R4">
-        <v>30.34903796022733</v>
+        <v>47.51367876048</v>
       </c>
       <c r="S4">
-        <v>0.1085129858244729</v>
+        <v>0.01162470494025312</v>
       </c>
       <c r="T4">
-        <v>0.1085129858244729</v>
+        <v>0.01286437316850892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H5">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I5">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J5">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>36.10682096395023</v>
+        <v>6.031632266626668</v>
       </c>
       <c r="R5">
-        <v>36.10682096395023</v>
+        <v>54.28469039964001</v>
       </c>
       <c r="S5">
-        <v>0.1290999390676753</v>
+        <v>0.01328130182994131</v>
       </c>
       <c r="T5">
-        <v>0.1290999390676753</v>
+        <v>0.01469763093189056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.425653352363177</v>
+        <v>0.07108</v>
       </c>
       <c r="H6">
-        <v>0.425653352363177</v>
+        <v>0.21324</v>
       </c>
       <c r="I6">
-        <v>0.891606891340473</v>
+        <v>0.09618084380152486</v>
       </c>
       <c r="J6">
-        <v>0.891606891340473</v>
+        <v>0.0966656602993535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>71.24757473677312</v>
+        <v>12.03072326814</v>
       </c>
       <c r="R6">
-        <v>71.24757473677312</v>
+        <v>72.18433960884001</v>
       </c>
       <c r="S6">
-        <v>0.2547457048744495</v>
+        <v>0.02649094969545085</v>
       </c>
       <c r="T6">
-        <v>0.2547457048744495</v>
+        <v>0.01954397777388845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J7">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>5.364274994313655</v>
+        <v>82.58419878461422</v>
       </c>
       <c r="R7">
-        <v>5.364274994313655</v>
+        <v>743.257789061528</v>
       </c>
       <c r="S7">
-        <v>0.01917996534781006</v>
+        <v>0.1818455804262349</v>
       </c>
       <c r="T7">
-        <v>0.01917996534781006</v>
+        <v>0.2012377447574381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J8">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>6.007810984219773</v>
+        <v>88.37698789826332</v>
       </c>
       <c r="R8">
-        <v>6.007810984219773</v>
+        <v>795.3928910843699</v>
       </c>
       <c r="S8">
-        <v>0.02148092829239289</v>
+        <v>0.1946009635886438</v>
       </c>
       <c r="T8">
-        <v>0.02148092829239289</v>
+        <v>0.2153533726165457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J9">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>3.090856300084219</v>
+        <v>44.37697282771955</v>
       </c>
       <c r="R9">
-        <v>3.090856300084219</v>
+        <v>399.3927554494759</v>
       </c>
       <c r="S9">
-        <v>0.01105135676182104</v>
+        <v>0.0977155012723735</v>
       </c>
       <c r="T9">
-        <v>0.01105135676182104</v>
+        <v>0.1081359638095338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J10">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>3.677249842274821</v>
+        <v>50.70098324673812</v>
       </c>
       <c r="R10">
-        <v>3.677249842274821</v>
+        <v>456.308849220643</v>
       </c>
       <c r="S10">
-        <v>0.0131480068834717</v>
+        <v>0.1116406027105706</v>
       </c>
       <c r="T10">
-        <v>0.0131480068834717</v>
+        <v>0.1235460496767462</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.04335008402994</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
-        <v>0.04335008402994</v>
+        <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.09080448549669824</v>
+        <v>0.8084815410946006</v>
       </c>
       <c r="J11">
-        <v>0.09080448549669824</v>
+        <v>0.8125568348206718</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>7.256111891568733</v>
+        <v>101.1284295694055</v>
       </c>
       <c r="R11">
-        <v>7.256111891568733</v>
+        <v>606.7705774164331</v>
       </c>
       <c r="S11">
-        <v>0.02594422821120256</v>
+        <v>0.2226788930967778</v>
       </c>
       <c r="T11">
-        <v>0.02594422821120256</v>
+        <v>0.164283703960408</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H12">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I12">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J12">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>1.039047915977657</v>
+        <v>8.201551939452445</v>
       </c>
       <c r="R12">
-        <v>1.039047915977657</v>
+        <v>73.813967455072</v>
       </c>
       <c r="S12">
-        <v>0.00371511584404065</v>
+        <v>0.01805933816365243</v>
       </c>
       <c r="T12">
-        <v>0.00371511584404065</v>
+        <v>0.01998520104446288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H13">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I13">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J13">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>1.163699379572902</v>
+        <v>8.776841903986666</v>
       </c>
       <c r="R13">
-        <v>1.163699379572902</v>
+        <v>78.99157713587999</v>
       </c>
       <c r="S13">
-        <v>0.004160807154580277</v>
+        <v>0.01932609305204161</v>
       </c>
       <c r="T13">
-        <v>0.004160807154580277</v>
+        <v>0.02138704373045164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H14">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I14">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J14">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>0.59869186434202</v>
+        <v>4.407139052247111</v>
       </c>
       <c r="R14">
-        <v>0.59869186434202</v>
+        <v>39.664251470224</v>
       </c>
       <c r="S14">
-        <v>0.002140622772745257</v>
+        <v>0.009704262689103068</v>
       </c>
       <c r="T14">
-        <v>0.002140622772745257</v>
+        <v>0.01073913335430786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.008396813085927299</v>
+        <v>0.05933733333333333</v>
       </c>
       <c r="H15">
-        <v>0.008396813085927299</v>
+        <v>0.178012</v>
       </c>
       <c r="I15">
-        <v>0.01758862316282866</v>
+        <v>0.08029142921964473</v>
       </c>
       <c r="J15">
-        <v>0.01758862316282866</v>
+        <v>0.08069615232230591</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>0.7122749652460144</v>
+        <v>5.035185345370223</v>
       </c>
       <c r="R15">
-        <v>0.7122749652460144</v>
+        <v>45.31666810833201</v>
       </c>
       <c r="S15">
-        <v>0.002546739152264343</v>
+        <v>0.01108718393055483</v>
       </c>
       <c r="T15">
-        <v>0.002546739152264343</v>
+        <v>0.01226953047011678</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05933733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.178012</v>
+      </c>
+      <c r="I16">
+        <v>0.08029142921964473</v>
+      </c>
+      <c r="J16">
+        <v>0.08069615232230591</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>10.043205357382</v>
+      </c>
+      <c r="R16">
+        <v>60.25923214429201</v>
+      </c>
+      <c r="S16">
+        <v>0.0221145513842928</v>
+      </c>
+      <c r="T16">
+        <v>0.01631524372296675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.0111195</v>
+      </c>
+      <c r="H17">
+        <v>0.022239</v>
+      </c>
+      <c r="I17">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J17">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>1.536927119364</v>
+      </c>
+      <c r="R17">
+        <v>9.221562716184</v>
+      </c>
+      <c r="S17">
+        <v>0.003384223715997796</v>
+      </c>
+      <c r="T17">
+        <v>0.002496746770036907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.0111195</v>
+      </c>
+      <c r="H18">
+        <v>0.022239</v>
+      </c>
+      <c r="I18">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J18">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>1.644733392435</v>
+      </c>
+      <c r="R18">
+        <v>9.868400354609998</v>
+      </c>
+      <c r="S18">
+        <v>0.003621606830306552</v>
+      </c>
+      <c r="T18">
+        <v>0.002671878668412882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.0111195</v>
+      </c>
+      <c r="H19">
+        <v>0.022239</v>
+      </c>
+      <c r="I19">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J19">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>0.8258743684379999</v>
+      </c>
+      <c r="R19">
+        <v>4.955246210627999</v>
+      </c>
+      <c r="S19">
+        <v>0.00181852710443366</v>
+      </c>
+      <c r="T19">
+        <v>0.00134163756750361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="H16">
-        <v>0.008396813085927299</v>
-      </c>
-      <c r="I16">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="J16">
-        <v>0.01758862316282866</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>1.405492437846178</v>
-      </c>
-      <c r="R16">
-        <v>1.405492437846178</v>
-      </c>
-      <c r="S16">
-        <v>0.005025338239198136</v>
-      </c>
-      <c r="T16">
-        <v>0.005025338239198136</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.0111195</v>
+      </c>
+      <c r="H20">
+        <v>0.022239</v>
+      </c>
+      <c r="I20">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J20">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>0.9435668962965001</v>
+      </c>
+      <c r="R20">
+        <v>5.661401377779001</v>
+      </c>
+      <c r="S20">
+        <v>0.002077679174142267</v>
+      </c>
+      <c r="T20">
+        <v>0.001532829742516949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.0111195</v>
+      </c>
+      <c r="H21">
+        <v>0.022239</v>
+      </c>
+      <c r="I21">
+        <v>0.01504618588422982</v>
+      </c>
+      <c r="J21">
+        <v>0.01008135255766893</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>1.88204315391225</v>
+      </c>
+      <c r="R21">
+        <v>7.528172615649</v>
+      </c>
+      <c r="S21">
+        <v>0.004144149059349545</v>
+      </c>
+      <c r="T21">
+        <v>0.002038259809198579</v>
       </c>
     </row>
   </sheetData>
